--- a/employee_list.xlsx
+++ b/employee_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" state="visible" r:id="rId3"/>
@@ -530,8 +530,8 @@
   </sheetPr>
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J1" activeCellId="0" sqref="J1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1704,7 +1704,7 @@
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1774,8 +1774,8 @@
   </sheetPr>
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/employee_list.xlsx
+++ b/employee_list.xlsx
@@ -2,17 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookPr showObjects="all"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Employees" sheetId="1" state="visible" r:id="rId3"/>
-    <sheet name="部署" sheetId="2" state="visible" r:id="rId4"/>
-    <sheet name="役職" sheetId="3" state="visible" r:id="rId5"/>
+    <sheet name="従業員" sheetId="1" r:id="rId3" state="visible"/>
+    <sheet name="部署" sheetId="2" r:id="rId4" state="visible"/>
+    <sheet name="役職" sheetId="3" r:id="rId5" state="visible"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,9 +22,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t xml:space="preserve">EmployeeID</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+  <si>
+    <t xml:space="preserve">社員番号</t>
   </si>
   <si>
     <t xml:space="preserve">姓</t>
@@ -54,16 +54,49 @@
     <t xml:space="preserve">メールアドレス</t>
   </si>
   <si>
-    <t xml:space="preserve">管理本部123</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Developer</t>
+    <t xml:space="preserve">DK0002</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ahmedov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suhrob</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EMPLOYEE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-stage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software Engineer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sarvarbekfozilv59@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DK0001</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fozilov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarvarbek</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>1-stage</t>
+  </si>
+  <si>
+    <t>CEO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
@@ -91,7 +124,7 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="true"/>
+      <b val="1"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
@@ -99,7 +132,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b val="1"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP"/>
@@ -128,7 +161,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b val="1"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Noto Sans CJK SC"/>
@@ -178,14 +211,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -195,8 +228,8 @@
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="general" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -220,64 +253,64 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="general" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="general" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="left" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="left" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="left" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="left" vertical="bottom" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="general" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="left" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="right" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="right" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="left" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="general" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="general" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="general" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+      <alignment horizontal="general" vertical="bottom"/>
+      <protection hidden="false" locked="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -394,14 +427,14 @@
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial" pitchFamily="0"/>
+        <a:ea typeface="Arial" pitchFamily="0"/>
+        <a:cs typeface="Arial" pitchFamily="0"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
-        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Arial" pitchFamily="0"/>
+        <a:ea typeface="Arial" pitchFamily="0"/>
+        <a:cs typeface="Arial" pitchFamily="0"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -520,30 +553,32 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A52" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A8"/>
+    <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection activeCell="B6" activeCellId="1" pane="topLeft" sqref="A2:A5 B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.75"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="1" width="12.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.44"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="12.63"/>
+    <col customWidth="true" max="1" min="1" style="1" width="13.75"/>
+    <col customWidth="true" max="6" min="2" style="1" width="12.63"/>
+    <col customWidth="true" max="7" min="7" style="1" width="20.44"/>
+    <col customWidth="true" max="8" min="8" style="1" width="17.38"/>
+    <col customWidth="true" max="10" min="9" style="1" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="32.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="17.15">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -575,29 +610,71 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="7"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="10"/>
-      <c r="J3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" ht="12.8">
+      <c r="A2" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" ht="12.8">
+      <c r="A3" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="12.8">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -608,7 +685,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" ht="12.8">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -619,7 +696,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" ht="12.8">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -630,7 +707,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" ht="12.8">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -641,7 +718,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" ht="12.8">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -652,7 +729,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" ht="12.8">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -663,7 +740,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" ht="12.8">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -674,7 +751,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" ht="12.8">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -685,7 +762,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" ht="12.8">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -696,7 +773,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" ht="12.8">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -707,7 +784,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" ht="12.8">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -718,7 +795,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" ht="12.8">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -729,7 +806,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" ht="12.8">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -740,7 +817,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" ht="12.8">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -751,7 +828,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" ht="12.8">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -762,7 +839,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" ht="12.8">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -773,7 +850,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" ht="12.8">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -784,7 +861,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" ht="12.8">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -795,7 +872,7 @@
       <c r="I21" s="10"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" ht="12.8">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -806,7 +883,7 @@
       <c r="I22" s="10"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" ht="12.8">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -817,7 +894,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" ht="12.8">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -828,7 +905,7 @@
       <c r="I24" s="10"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" ht="12.8">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -839,7 +916,7 @@
       <c r="I25" s="10"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" ht="12.8">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -850,7 +927,7 @@
       <c r="I26" s="10"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" ht="12.8">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -861,7 +938,7 @@
       <c r="I27" s="10"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" ht="12.8">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -872,7 +949,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" ht="12.8">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -883,7 +960,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" ht="12.8">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -894,7 +971,7 @@
       <c r="I30" s="10"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" ht="12.8">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -905,7 +982,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" ht="12.8">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -916,7 +993,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" ht="12.8">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -927,7 +1004,7 @@
       <c r="I33" s="10"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" ht="12.8">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -938,7 +1015,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" ht="12.8">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -949,7 +1026,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" ht="12.8">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -960,7 +1037,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" ht="12.8">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -971,7 +1048,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" ht="12.8">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -982,7 +1059,7 @@
       <c r="I38" s="10"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" ht="12.8">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -993,7 +1070,7 @@
       <c r="I39" s="10"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" ht="12.8">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1004,7 +1081,7 @@
       <c r="I40" s="10"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" ht="12.8">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1015,7 +1092,7 @@
       <c r="I41" s="10"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" ht="12.8">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1026,7 +1103,7 @@
       <c r="I42" s="10"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" ht="12.8">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1037,7 +1114,7 @@
       <c r="I43" s="10"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" ht="12.8">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1048,7 +1125,7 @@
       <c r="I44" s="10"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" ht="12.8">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1059,7 +1136,7 @@
       <c r="I45" s="10"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" ht="12.8">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1070,7 +1147,7 @@
       <c r="I46" s="10"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" ht="12.8">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1081,7 +1158,7 @@
       <c r="I47" s="10"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" ht="12.8">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1092,7 +1169,7 @@
       <c r="I48" s="10"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" ht="12.8">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1103,7 +1180,7 @@
       <c r="I49" s="10"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" ht="12.8">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1114,7 +1191,7 @@
       <c r="I50" s="10"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="51" ht="12.8">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -1125,7 +1202,7 @@
       <c r="I51" s="10"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" ht="12.8">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -1136,7 +1213,7 @@
       <c r="I52" s="10"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" ht="12.8">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -1147,7 +1224,7 @@
       <c r="I53" s="10"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" ht="12.8">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -1158,7 +1235,7 @@
       <c r="I54" s="10"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" ht="12.8">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1169,7 +1246,7 @@
       <c r="I55" s="10"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" ht="12.8">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -1180,7 +1257,7 @@
       <c r="I56" s="10"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" ht="12.8">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1191,7 +1268,7 @@
       <c r="I57" s="10"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" ht="12.8">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -1202,7 +1279,7 @@
       <c r="I58" s="10"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" ht="12.8">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -1213,7 +1290,7 @@
       <c r="I59" s="10"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" ht="12.8">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -1224,7 +1301,7 @@
       <c r="I60" s="10"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" ht="12.8">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -1235,7 +1312,7 @@
       <c r="I61" s="10"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" ht="12.8">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -1246,7 +1323,7 @@
       <c r="I62" s="10"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" ht="12.8">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -1257,7 +1334,7 @@
       <c r="I63" s="10"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" ht="12.8">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -1268,7 +1345,7 @@
       <c r="I64" s="10"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" ht="12.8">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -1279,7 +1356,7 @@
       <c r="I65" s="10"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" ht="12.8">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -1290,7 +1367,7 @@
       <c r="I66" s="10"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" ht="12.8">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -1301,7 +1378,7 @@
       <c r="I67" s="10"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" ht="12.8">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -1312,7 +1389,7 @@
       <c r="I68" s="10"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" ht="12.8">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -1323,7 +1400,7 @@
       <c r="I69" s="10"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" ht="12.8">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -1334,7 +1411,7 @@
       <c r="I70" s="10"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" ht="12.8">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -1345,7 +1422,7 @@
       <c r="I71" s="10"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" ht="12.8">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -1356,7 +1433,7 @@
       <c r="I72" s="10"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" ht="12.8">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -1367,7 +1444,7 @@
       <c r="I73" s="10"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" ht="12.8">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -1378,7 +1455,7 @@
       <c r="I74" s="10"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="75" ht="12.8">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -1389,7 +1466,7 @@
       <c r="I75" s="10"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="76" ht="12.8">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -1400,7 +1477,7 @@
       <c r="I76" s="10"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="77" ht="12.8">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -1411,7 +1488,7 @@
       <c r="I77" s="10"/>
       <c r="J77" s="7"/>
     </row>
-    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="78" ht="12.8">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -1422,7 +1499,7 @@
       <c r="I78" s="10"/>
       <c r="J78" s="7"/>
     </row>
-    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="79" ht="12.8">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -1433,7 +1510,7 @@
       <c r="I79" s="10"/>
       <c r="J79" s="7"/>
     </row>
-    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="80" ht="12.8">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -1444,7 +1521,7 @@
       <c r="I80" s="10"/>
       <c r="J80" s="7"/>
     </row>
-    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="81" ht="12.8">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -1455,7 +1532,7 @@
       <c r="I81" s="10"/>
       <c r="J81" s="7"/>
     </row>
-    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="82" ht="12.8">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -1466,7 +1543,7 @@
       <c r="I82" s="10"/>
       <c r="J82" s="7"/>
     </row>
-    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="83" ht="12.8">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -1477,7 +1554,7 @@
       <c r="I83" s="10"/>
       <c r="J83" s="7"/>
     </row>
-    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="84" ht="12.8">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -1488,7 +1565,7 @@
       <c r="I84" s="10"/>
       <c r="J84" s="7"/>
     </row>
-    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="85" ht="12.8">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -1499,7 +1576,7 @@
       <c r="I85" s="10"/>
       <c r="J85" s="7"/>
     </row>
-    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="86" ht="12.8">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -1510,7 +1587,7 @@
       <c r="I86" s="10"/>
       <c r="J86" s="7"/>
     </row>
-    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="87" ht="12.8">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -1521,7 +1598,7 @@
       <c r="I87" s="10"/>
       <c r="J87" s="7"/>
     </row>
-    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="88" ht="12.8">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -1532,7 +1609,7 @@
       <c r="I88" s="10"/>
       <c r="J88" s="7"/>
     </row>
-    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="89" ht="12.8">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -1543,7 +1620,7 @@
       <c r="I89" s="10"/>
       <c r="J89" s="7"/>
     </row>
-    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="90" ht="12.8">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -1554,7 +1631,7 @@
       <c r="I90" s="10"/>
       <c r="J90" s="7"/>
     </row>
-    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="91" ht="12.8">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -1565,7 +1642,7 @@
       <c r="I91" s="10"/>
       <c r="J91" s="7"/>
     </row>
-    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="92" ht="12.8">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -1576,7 +1653,7 @@
       <c r="I92" s="10"/>
       <c r="J92" s="7"/>
     </row>
-    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="93" ht="12.8">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -1587,7 +1664,7 @@
       <c r="I93" s="10"/>
       <c r="J93" s="7"/>
     </row>
-    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="94" ht="12.8">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -1598,7 +1675,7 @@
       <c r="I94" s="10"/>
       <c r="J94" s="7"/>
     </row>
-    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="95" ht="12.8">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -1609,7 +1686,7 @@
       <c r="I95" s="10"/>
       <c r="J95" s="7"/>
     </row>
-    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="96" ht="12.8">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -1620,7 +1697,7 @@
       <c r="I96" s="10"/>
       <c r="J96" s="7"/>
     </row>
-    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="97" ht="12.8">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -1631,7 +1708,7 @@
       <c r="I97" s="10"/>
       <c r="J97" s="7"/>
     </row>
-    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="98" ht="12.8">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -1642,7 +1719,7 @@
       <c r="I98" s="10"/>
       <c r="J98" s="7"/>
     </row>
-    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="99" ht="12.8">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -1653,7 +1730,7 @@
       <c r="I99" s="10"/>
       <c r="J99" s="7"/>
     </row>
-    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="100" ht="12.8">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -1664,7 +1741,7 @@
       <c r="I100" s="10"/>
       <c r="J100" s="7"/>
     </row>
-    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="101" ht="12.8">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -1677,157 +1754,160 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G101" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showErrorMessage="true" sqref="G2:G101" type="list">
       <formula1>部署!$A$2:$A1000</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2:H101" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showErrorMessage="true" sqref="H2:H101" type="list">
       <formula1>役職!$A$2:$A1000</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions gridLinesSet="true"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup cellComments="none" copies="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A8"/>
+    <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection activeCell="A5" activeCellId="0" pane="topLeft" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
+    <col customWidth="true" max="3" min="3" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="15">
       <c r="A1" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="12"/>
-    </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="12"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" ht="13.8">
+      <c r="A2" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" ht="13.8">
+      <c r="A3" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" ht="13.8">
       <c r="A4" s="12"/>
     </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" ht="15.75" customHeight="true">
       <c r="A5" s="13"/>
     </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="6" ht="15.75" customHeight="true">
       <c r="A6" s="13"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" ht="15.75" customHeight="true">
       <c r="A7" s="13"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" ht="15.75" customHeight="true">
       <c r="A8" s="13"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" ht="15.75" customHeight="true">
       <c r="A9" s="13"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="15.75" customHeight="true">
       <c r="A10" s="13"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" ht="15.75" customHeight="true">
       <c r="A11" s="13"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" ht="15.75" customHeight="true">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="13" ht="15.75" customHeight="true">
       <c r="A13" s="13"/>
     </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="14" ht="15.75" customHeight="true">
       <c r="A14" s="13"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions gridLinesSet="true"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup cellComments="none" copies="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+  <sheetPr>
+    <pageSetUpPr/>
   </sheetPr>
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:A8"/>
+    <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection activeCell="A3" activeCellId="0" pane="topLeft" sqref="A2:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
+    <col customWidth="true" max="3" min="3" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" ht="15">
       <c r="A1" s="11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14"/>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" ht="13.8">
+      <c r="A2" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" ht="12.8">
+      <c r="A3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" ht="12.8">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75" customHeight="true">
+      <c r="A5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" ht="15.75" customHeight="true">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="7" ht="15.75" customHeight="true">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="8" ht="15.75" customHeight="true">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="9" ht="15.75" customHeight="true">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="10" ht="15.75" customHeight="true">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="11" ht="15.75" customHeight="true">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="12" ht="15.75" customHeight="true">
       <c r="A12" s="1"/>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <printOptions gridLinesSet="true"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup cellComments="none" copies="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/employee_list.xlsx
+++ b/employee_list.xlsx
@@ -2,17 +2,17 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="Calc"/>
-  <workbookPr showObjects="all"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="従業員" sheetId="1" r:id="rId3" state="visible"/>
-    <sheet name="部署" sheetId="2" r:id="rId4" state="visible"/>
-    <sheet name="役職" sheetId="3" r:id="rId5" state="visible"/>
+    <sheet name="従業員" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="部署" sheetId="2" state="visible" r:id="rId4"/>
+    <sheet name="役職" sheetId="3" state="visible" r:id="rId5"/>
   </sheets>
-  <calcPr iterateCount="100" iterateDelta="0.0001" refMode="A1"/>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
   <si>
     <t xml:space="preserve">社員番号</t>
   </si>
@@ -53,50 +53,11 @@
   <si>
     <t xml:space="preserve">メールアドレス</t>
   </si>
-  <si>
-    <t xml:space="preserve">DK0002</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ahmedov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Suhrob</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EMPLOYEE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2-stage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Software Engineer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sarvarbekfozilv59@gmail.com</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DK0001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fozilov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sarvarbek</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>1-stage</t>
-  </si>
-  <si>
-    <t>CEO</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:ap="http://schemas.openxmlformats.org/officeDocument/2006/extended-properties" xmlns:op="http://schemas.openxmlformats.org/officeDocument/2006/custom-properties" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing" xmlns:comp="http://schemas.openxmlformats.org/drawingml/2006/compatibility" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:lc="http://schemas.openxmlformats.org/drawingml/2006/lockedCanvas" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xne="http://schemas.microsoft.com/office/excel/2006/main" xmlns:mso="http://schemas.microsoft.com/office/2006/01/customui" xmlns:ax="http://schemas.microsoft.com/office/2006/activeX" xmlns:cppr="http://schemas.microsoft.com/office/2006/coverPageProps" xmlns:cdip="http://schemas.microsoft.com/office/2006/customDocumentInformationPanel" xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ntns="http://schemas.microsoft.com/office/2006/metadata/customXsn" xmlns:lp="http://schemas.microsoft.com/office/2006/metadata/longProperties" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" xmlns:msink="http://schemas.microsoft.com/ink/2010/main" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" xmlns:cdr14="http://schemas.microsoft.com/office/drawing/2010/chartDrawing" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns:pic14="http://schemas.microsoft.com/office/drawing/2010/picture" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:dsp="http://schemas.microsoft.com/office/drawing/2008/diagram" xmlns:mso14="http://schemas.microsoft.com/office/2009/07/customui" xmlns:dgm14="http://schemas.microsoft.com/office/drawing/2010/diagram" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x12ac="http://schemas.microsoft.com/office/spreadsheetml/2011/1/ac" xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:xr4="http://schemas.microsoft.com/office/spreadsheetml/2016/revision4" xmlns:xr5="http://schemas.microsoft.com/office/spreadsheetml/2016/revision5" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr7="http://schemas.microsoft.com/office/spreadsheetml/2016/revision7" xmlns:xr8="http://schemas.microsoft.com/office/spreadsheetml/2016/revision8" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr11="http://schemas.microsoft.com/office/spreadsheetml/2016/revision11" xmlns:xr12="http://schemas.microsoft.com/office/spreadsheetml/2016/revision12" xmlns:xr13="http://schemas.microsoft.com/office/spreadsheetml/2016/revision13" xmlns:xr14="http://schemas.microsoft.com/office/spreadsheetml/2016/revision14" xmlns:xr15="http://schemas.microsoft.com/office/spreadsheetml/2016/revision15" xmlns:x16="http://schemas.microsoft.com/office/spreadsheetml/2014/11/main" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:mo="http://schemas.microsoft.com/office/mac/office/2008/main" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:v="urn:schemas-microsoft-com:vml" mc:Ignorable="c14 cdr14 a14 pic14 x14 xdr14 x14ac dsp mso14 dgm14 x15 x12ac x15ac xr xr2 xr3 xr4 xr5 xr6 xr7 xr8 xr9 xr10 xr11 xr12 xr13 xr14 xr15 x15 x16 x16r2 mo mx mv o v" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
@@ -124,7 +85,7 @@
       <family val="0"/>
     </font>
     <font>
-      <b val="1"/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK SC"/>
@@ -132,7 +93,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="1"/>
+      <b val="true"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Noto Sans CJK JP"/>
@@ -161,7 +122,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="1"/>
+      <b val="true"/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Noto Sans CJK SC"/>
@@ -211,14 +172,14 @@
     </fill>
   </fills>
   <borders count="2">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
@@ -228,8 +189,8 @@
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="false" locked="true"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
@@ -253,64 +214,64 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="false" locked="true"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="false" locked="true"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom"/>
-      <protection hidden="false" locked="true"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom"/>
-      <protection hidden="false" locked="true"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom"/>
-      <protection hidden="false" locked="true"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="false" locked="true"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom"/>
-      <protection hidden="false" locked="true"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom"/>
-      <protection hidden="false" locked="true"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="right" vertical="bottom"/>
-      <protection hidden="false" locked="true"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom"/>
-      <protection hidden="false" locked="true"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="false" locked="true"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="false" locked="true"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="false" locked="true"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom"/>
-      <protection hidden="false" locked="true"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -427,14 +388,14 @@
     </a:clrScheme>
     <a:fontScheme name="Sheets">
       <a:majorFont>
-        <a:latin typeface="Arial" pitchFamily="0"/>
-        <a:ea typeface="Arial" pitchFamily="0"/>
-        <a:cs typeface="Arial" pitchFamily="0"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial" pitchFamily="0"/>
-        <a:ea typeface="Arial" pitchFamily="0"/>
-        <a:cs typeface="Arial" pitchFamily="0"/>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:cs typeface="Arial" pitchFamily="0" charset="1"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme>
@@ -553,32 +514,30 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr>
-    <pageSetUpPr/>
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:J101"/>
   <sheetViews>
-    <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" activeCellId="1" pane="topLeft" sqref="A2:A5 B6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="true" max="1" min="1" style="1" width="13.75"/>
-    <col customWidth="true" max="6" min="2" style="1" width="12.63"/>
-    <col customWidth="true" max="7" min="7" style="1" width="20.44"/>
-    <col customWidth="true" max="8" min="8" style="1" width="17.38"/>
-    <col customWidth="true" max="10" min="9" style="1" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="1" width="12.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="20.44"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="17.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="12.63"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.15">
+    <row r="1" customFormat="false" ht="17.15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -610,71 +569,29 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" ht="12.8">
-      <c r="A2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" ht="12.8">
-      <c r="A3" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" ht="12.8">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+      <c r="I2" s="10"/>
+      <c r="J2" s="7"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="6"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="7"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
@@ -685,7 +602,7 @@
       <c r="I4" s="10"/>
       <c r="J4" s="7"/>
     </row>
-    <row r="5" ht="12.8">
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
@@ -696,7 +613,7 @@
       <c r="I5" s="10"/>
       <c r="J5" s="7"/>
     </row>
-    <row r="6" ht="12.8">
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
@@ -707,7 +624,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="7"/>
     </row>
-    <row r="7" ht="12.8">
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
@@ -718,7 +635,7 @@
       <c r="I7" s="10"/>
       <c r="J7" s="7"/>
     </row>
-    <row r="8" ht="12.8">
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
@@ -729,7 +646,7 @@
       <c r="I8" s="10"/>
       <c r="J8" s="7"/>
     </row>
-    <row r="9" ht="12.8">
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -740,7 +657,7 @@
       <c r="I9" s="10"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" ht="12.8">
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
@@ -751,7 +668,7 @@
       <c r="I10" s="10"/>
       <c r="J10" s="7"/>
     </row>
-    <row r="11" ht="12.8">
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -762,7 +679,7 @@
       <c r="I11" s="10"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" ht="12.8">
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
@@ -773,7 +690,7 @@
       <c r="I12" s="10"/>
       <c r="J12" s="7"/>
     </row>
-    <row r="13" ht="12.8">
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
@@ -784,7 +701,7 @@
       <c r="I13" s="10"/>
       <c r="J13" s="7"/>
     </row>
-    <row r="14" ht="12.8">
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
@@ -795,7 +712,7 @@
       <c r="I14" s="10"/>
       <c r="J14" s="7"/>
     </row>
-    <row r="15" ht="12.8">
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
@@ -806,7 +723,7 @@
       <c r="I15" s="10"/>
       <c r="J15" s="7"/>
     </row>
-    <row r="16" ht="12.8">
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
@@ -817,7 +734,7 @@
       <c r="I16" s="10"/>
       <c r="J16" s="7"/>
     </row>
-    <row r="17" ht="12.8">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
@@ -828,7 +745,7 @@
       <c r="I17" s="10"/>
       <c r="J17" s="7"/>
     </row>
-    <row r="18" ht="12.8">
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
@@ -839,7 +756,7 @@
       <c r="I18" s="10"/>
       <c r="J18" s="7"/>
     </row>
-    <row r="19" ht="12.8">
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
@@ -850,7 +767,7 @@
       <c r="I19" s="10"/>
       <c r="J19" s="7"/>
     </row>
-    <row r="20" ht="12.8">
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
@@ -861,7 +778,7 @@
       <c r="I20" s="10"/>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" ht="12.8">
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
@@ -872,7 +789,7 @@
       <c r="I21" s="10"/>
       <c r="J21" s="7"/>
     </row>
-    <row r="22" ht="12.8">
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="6"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
@@ -883,7 +800,7 @@
       <c r="I22" s="10"/>
       <c r="J22" s="7"/>
     </row>
-    <row r="23" ht="12.8">
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="6"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
@@ -894,7 +811,7 @@
       <c r="I23" s="10"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" ht="12.8">
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="6"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
@@ -905,7 +822,7 @@
       <c r="I24" s="10"/>
       <c r="J24" s="7"/>
     </row>
-    <row r="25" ht="12.8">
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="6"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -916,7 +833,7 @@
       <c r="I25" s="10"/>
       <c r="J25" s="7"/>
     </row>
-    <row r="26" ht="12.8">
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="6"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -927,7 +844,7 @@
       <c r="I26" s="10"/>
       <c r="J26" s="7"/>
     </row>
-    <row r="27" ht="12.8">
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="6"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -938,7 +855,7 @@
       <c r="I27" s="10"/>
       <c r="J27" s="7"/>
     </row>
-    <row r="28" ht="12.8">
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="6"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -949,7 +866,7 @@
       <c r="I28" s="10"/>
       <c r="J28" s="7"/>
     </row>
-    <row r="29" ht="12.8">
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="6"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -960,7 +877,7 @@
       <c r="I29" s="10"/>
       <c r="J29" s="7"/>
     </row>
-    <row r="30" ht="12.8">
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -971,7 +888,7 @@
       <c r="I30" s="10"/>
       <c r="J30" s="7"/>
     </row>
-    <row r="31" ht="12.8">
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="6"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -982,7 +899,7 @@
       <c r="I31" s="10"/>
       <c r="J31" s="7"/>
     </row>
-    <row r="32" ht="12.8">
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="6"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -993,7 +910,7 @@
       <c r="I32" s="10"/>
       <c r="J32" s="7"/>
     </row>
-    <row r="33" ht="12.8">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="6"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1004,7 +921,7 @@
       <c r="I33" s="10"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" ht="12.8">
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="6"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1015,7 +932,7 @@
       <c r="I34" s="10"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" ht="12.8">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1026,7 +943,7 @@
       <c r="I35" s="10"/>
       <c r="J35" s="7"/>
     </row>
-    <row r="36" ht="12.8">
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="6"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1037,7 +954,7 @@
       <c r="I36" s="10"/>
       <c r="J36" s="7"/>
     </row>
-    <row r="37" ht="12.8">
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="6"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1048,7 +965,7 @@
       <c r="I37" s="10"/>
       <c r="J37" s="7"/>
     </row>
-    <row r="38" ht="12.8">
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="6"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1059,7 +976,7 @@
       <c r="I38" s="10"/>
       <c r="J38" s="7"/>
     </row>
-    <row r="39" ht="12.8">
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="6"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1070,7 +987,7 @@
       <c r="I39" s="10"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" ht="12.8">
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="6"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1081,7 +998,7 @@
       <c r="I40" s="10"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" ht="12.8">
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="6"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1092,7 +1009,7 @@
       <c r="I41" s="10"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" ht="12.8">
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="6"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1103,7 +1020,7 @@
       <c r="I42" s="10"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" ht="12.8">
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1114,7 +1031,7 @@
       <c r="I43" s="10"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" ht="12.8">
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1125,7 +1042,7 @@
       <c r="I44" s="10"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" ht="12.8">
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1136,7 +1053,7 @@
       <c r="I45" s="10"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" ht="12.8">
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1147,7 +1064,7 @@
       <c r="I46" s="10"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" ht="12.8">
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1158,7 +1075,7 @@
       <c r="I47" s="10"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" ht="12.8">
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1169,7 +1086,7 @@
       <c r="I48" s="10"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" ht="12.8">
+    <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1180,7 +1097,7 @@
       <c r="I49" s="10"/>
       <c r="J49" s="7"/>
     </row>
-    <row r="50" ht="12.8">
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -1191,7 +1108,7 @@
       <c r="I50" s="10"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" ht="12.8">
+    <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="6"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -1202,7 +1119,7 @@
       <c r="I51" s="10"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" ht="12.8">
+    <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -1213,7 +1130,7 @@
       <c r="I52" s="10"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" ht="12.8">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -1224,7 +1141,7 @@
       <c r="I53" s="10"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" ht="12.8">
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -1235,7 +1152,7 @@
       <c r="I54" s="10"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" ht="12.8">
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -1246,7 +1163,7 @@
       <c r="I55" s="10"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" ht="12.8">
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -1257,7 +1174,7 @@
       <c r="I56" s="10"/>
       <c r="J56" s="7"/>
     </row>
-    <row r="57" ht="12.8">
+    <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -1268,7 +1185,7 @@
       <c r="I57" s="10"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" ht="12.8">
+    <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -1279,7 +1196,7 @@
       <c r="I58" s="10"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" ht="12.8">
+    <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -1290,7 +1207,7 @@
       <c r="I59" s="10"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" ht="12.8">
+    <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -1301,7 +1218,7 @@
       <c r="I60" s="10"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" ht="12.8">
+    <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -1312,7 +1229,7 @@
       <c r="I61" s="10"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" ht="12.8">
+    <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -1323,7 +1240,7 @@
       <c r="I62" s="10"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" ht="12.8">
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -1334,7 +1251,7 @@
       <c r="I63" s="10"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" ht="12.8">
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -1345,7 +1262,7 @@
       <c r="I64" s="10"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" ht="12.8">
+    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -1356,7 +1273,7 @@
       <c r="I65" s="10"/>
       <c r="J65" s="7"/>
     </row>
-    <row r="66" ht="12.8">
+    <row r="66" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -1367,7 +1284,7 @@
       <c r="I66" s="10"/>
       <c r="J66" s="7"/>
     </row>
-    <row r="67" ht="12.8">
+    <row r="67" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -1378,7 +1295,7 @@
       <c r="I67" s="10"/>
       <c r="J67" s="7"/>
     </row>
-    <row r="68" ht="12.8">
+    <row r="68" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -1389,7 +1306,7 @@
       <c r="I68" s="10"/>
       <c r="J68" s="7"/>
     </row>
-    <row r="69" ht="12.8">
+    <row r="69" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -1400,7 +1317,7 @@
       <c r="I69" s="10"/>
       <c r="J69" s="7"/>
     </row>
-    <row r="70" ht="12.8">
+    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -1411,7 +1328,7 @@
       <c r="I70" s="10"/>
       <c r="J70" s="7"/>
     </row>
-    <row r="71" ht="12.8">
+    <row r="71" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -1422,7 +1339,7 @@
       <c r="I71" s="10"/>
       <c r="J71" s="7"/>
     </row>
-    <row r="72" ht="12.8">
+    <row r="72" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -1433,7 +1350,7 @@
       <c r="I72" s="10"/>
       <c r="J72" s="7"/>
     </row>
-    <row r="73" ht="12.8">
+    <row r="73" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -1444,7 +1361,7 @@
       <c r="I73" s="10"/>
       <c r="J73" s="7"/>
     </row>
-    <row r="74" ht="12.8">
+    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -1455,7 +1372,7 @@
       <c r="I74" s="10"/>
       <c r="J74" s="7"/>
     </row>
-    <row r="75" ht="12.8">
+    <row r="75" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="6"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -1466,7 +1383,7 @@
       <c r="I75" s="10"/>
       <c r="J75" s="7"/>
     </row>
-    <row r="76" ht="12.8">
+    <row r="76" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="6"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -1477,7 +1394,7 @@
       <c r="I76" s="10"/>
       <c r="J76" s="7"/>
     </row>
-    <row r="77" ht="12.8">
+    <row r="77" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="6"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -1488,7 +1405,7 @@
       <c r="I77" s="10"/>
       <c r="J77" s="7"/>
     </row>
-    <row r="78" ht="12.8">
+    <row r="78" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="6"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -1499,7 +1416,7 @@
       <c r="I78" s="10"/>
       <c r="J78" s="7"/>
     </row>
-    <row r="79" ht="12.8">
+    <row r="79" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="6"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -1510,7 +1427,7 @@
       <c r="I79" s="10"/>
       <c r="J79" s="7"/>
     </row>
-    <row r="80" ht="12.8">
+    <row r="80" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="6"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -1521,7 +1438,7 @@
       <c r="I80" s="10"/>
       <c r="J80" s="7"/>
     </row>
-    <row r="81" ht="12.8">
+    <row r="81" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="6"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -1532,7 +1449,7 @@
       <c r="I81" s="10"/>
       <c r="J81" s="7"/>
     </row>
-    <row r="82" ht="12.8">
+    <row r="82" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="6"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -1543,7 +1460,7 @@
       <c r="I82" s="10"/>
       <c r="J82" s="7"/>
     </row>
-    <row r="83" ht="12.8">
+    <row r="83" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="6"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -1554,7 +1471,7 @@
       <c r="I83" s="10"/>
       <c r="J83" s="7"/>
     </row>
-    <row r="84" ht="12.8">
+    <row r="84" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="6"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -1565,7 +1482,7 @@
       <c r="I84" s="10"/>
       <c r="J84" s="7"/>
     </row>
-    <row r="85" ht="12.8">
+    <row r="85" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="6"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -1576,7 +1493,7 @@
       <c r="I85" s="10"/>
       <c r="J85" s="7"/>
     </row>
-    <row r="86" ht="12.8">
+    <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="6"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -1587,7 +1504,7 @@
       <c r="I86" s="10"/>
       <c r="J86" s="7"/>
     </row>
-    <row r="87" ht="12.8">
+    <row r="87" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="6"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -1598,7 +1515,7 @@
       <c r="I87" s="10"/>
       <c r="J87" s="7"/>
     </row>
-    <row r="88" ht="12.8">
+    <row r="88" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="6"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -1609,7 +1526,7 @@
       <c r="I88" s="10"/>
       <c r="J88" s="7"/>
     </row>
-    <row r="89" ht="12.8">
+    <row r="89" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="6"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -1620,7 +1537,7 @@
       <c r="I89" s="10"/>
       <c r="J89" s="7"/>
     </row>
-    <row r="90" ht="12.8">
+    <row r="90" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="6"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -1631,7 +1548,7 @@
       <c r="I90" s="10"/>
       <c r="J90" s="7"/>
     </row>
-    <row r="91" ht="12.8">
+    <row r="91" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="6"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -1642,7 +1559,7 @@
       <c r="I91" s="10"/>
       <c r="J91" s="7"/>
     </row>
-    <row r="92" ht="12.8">
+    <row r="92" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="6"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -1653,7 +1570,7 @@
       <c r="I92" s="10"/>
       <c r="J92" s="7"/>
     </row>
-    <row r="93" ht="12.8">
+    <row r="93" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="6"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -1664,7 +1581,7 @@
       <c r="I93" s="10"/>
       <c r="J93" s="7"/>
     </row>
-    <row r="94" ht="12.8">
+    <row r="94" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="6"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -1675,7 +1592,7 @@
       <c r="I94" s="10"/>
       <c r="J94" s="7"/>
     </row>
-    <row r="95" ht="12.8">
+    <row r="95" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="6"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -1686,7 +1603,7 @@
       <c r="I95" s="10"/>
       <c r="J95" s="7"/>
     </row>
-    <row r="96" ht="12.8">
+    <row r="96" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="6"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -1697,7 +1614,7 @@
       <c r="I96" s="10"/>
       <c r="J96" s="7"/>
     </row>
-    <row r="97" ht="12.8">
+    <row r="97" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="6"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -1708,7 +1625,7 @@
       <c r="I97" s="10"/>
       <c r="J97" s="7"/>
     </row>
-    <row r="98" ht="12.8">
+    <row r="98" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="6"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -1719,7 +1636,7 @@
       <c r="I98" s="10"/>
       <c r="J98" s="7"/>
     </row>
-    <row r="99" ht="12.8">
+    <row r="99" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A99" s="6"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -1730,7 +1647,7 @@
       <c r="I99" s="10"/>
       <c r="J99" s="7"/>
     </row>
-    <row r="100" ht="12.8">
+    <row r="100" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A100" s="6"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -1741,7 +1658,7 @@
       <c r="I100" s="10"/>
       <c r="J100" s="7"/>
     </row>
-    <row r="101" ht="12.8">
+    <row r="101" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="6"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -1754,160 +1671,157 @@
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showErrorMessage="true" sqref="G2:G101" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="G2:G101" type="list">
       <formula1>部署!$A$2:$A1000</formula1>
       <formula2>0</formula2>
     </dataValidation>
-    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showErrorMessage="true" sqref="H2:H101" type="list">
+    <dataValidation allowBlank="true" errorStyle="stop" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="false" sqref="H2:H101" type="list">
       <formula1>役職!$A$2:$A1000</formula1>
       <formula2>0</formula2>
     </dataValidation>
   </dataValidations>
-  <printOptions gridLinesSet="true"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup cellComments="none" copies="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr>
-    <pageSetUpPr/>
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="A5" activeCellId="0" pane="topLeft" sqref="A2:A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="true" max="3" min="3" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" ht="13.8">
-      <c r="A2" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="3" ht="13.8">
-      <c r="A3" s="12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" ht="13.8">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="12"/>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="12"/>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="12"/>
     </row>
-    <row r="5" ht="15.75" customHeight="true">
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="13"/>
     </row>
-    <row r="6" ht="15.75" customHeight="true">
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="13"/>
     </row>
-    <row r="7" ht="15.75" customHeight="true">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="13"/>
     </row>
-    <row r="8" ht="15.75" customHeight="true">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="13"/>
     </row>
-    <row r="9" ht="15.75" customHeight="true">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="13"/>
     </row>
-    <row r="10" ht="15.75" customHeight="true">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="13"/>
     </row>
-    <row r="11" ht="15.75" customHeight="true">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="13"/>
     </row>
-    <row r="12" ht="15.75" customHeight="true">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="13"/>
     </row>
-    <row r="13" ht="15.75" customHeight="true">
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="13"/>
     </row>
-    <row r="14" ht="15.75" customHeight="true">
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A14" s="13"/>
     </row>
   </sheetData>
-  <printOptions gridLinesSet="true"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup cellComments="none" copies="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr>
-    <pageSetUpPr/>
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView showGridLines="true" showRowColHeaders="true" showZeros="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection activeCell="A3" activeCellId="0" pane="topLeft" sqref="A2:A5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="true" max="3" min="3" style="1" width="11.53"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.53"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="11" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" ht="13.8">
-      <c r="A2" s="14" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" ht="12.8">
-      <c r="A3" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" ht="12.8">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" ht="15.75" customHeight="true">
-      <c r="A5" s="1" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" ht="15.75" customHeight="true">
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="14"/>
+    </row>
+    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" ht="15.75" customHeight="true">
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" ht="15.75" customHeight="true">
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" ht="15.75" customHeight="true">
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" ht="15.75" customHeight="true">
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" ht="15.75" customHeight="true">
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" ht="15.75" customHeight="true">
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="1"/>
     </row>
   </sheetData>
-  <printOptions gridLinesSet="true"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup cellComments="none" copies="1" fitToHeight="1" fitToWidth="1" horizontalDpi="300" orientation="portrait" pageOrder="downThenOver" paperSize="9" scale="100" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>